--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H2">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.13036839234934</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N2">
-        <v>5.13036839234934</v>
+        <v>19.830535</v>
       </c>
       <c r="O2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q2">
-        <v>285.0386237151571</v>
+        <v>408.8041676659761</v>
       </c>
       <c r="R2">
-        <v>285.0386237151571</v>
+        <v>3679.237508993785</v>
       </c>
       <c r="S2">
-        <v>0.01884200872127833</v>
+        <v>0.0206893597218207</v>
       </c>
       <c r="T2">
-        <v>0.01884200872127833</v>
+        <v>0.0206893597218207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H3">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.75397691008961</v>
+        <v>2.754304</v>
       </c>
       <c r="N3">
-        <v>2.75397691008961</v>
+        <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q3">
-        <v>153.0084641418497</v>
+        <v>170.3389677917013</v>
       </c>
       <c r="R3">
-        <v>153.0084641418497</v>
+        <v>1533.050710125312</v>
       </c>
       <c r="S3">
-        <v>0.01011437249525574</v>
+        <v>0.008620763822950257</v>
       </c>
       <c r="T3">
-        <v>0.01011437249525574</v>
+        <v>0.008620763822950258</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H4">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.22314243815605</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N4">
-        <v>0.22314243815605</v>
+        <v>0.687851</v>
       </c>
       <c r="O4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q4">
-        <v>12.39759186870378</v>
+        <v>14.17996819214456</v>
       </c>
       <c r="R4">
-        <v>12.39759186870378</v>
+        <v>127.619713729301</v>
       </c>
       <c r="S4">
-        <v>0.0008195223898723319</v>
+        <v>0.0007176405868028316</v>
       </c>
       <c r="T4">
-        <v>0.0008195223898723319</v>
+        <v>0.0007176405868028314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H5">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.220869978492051</v>
+        <v>0.214866</v>
       </c>
       <c r="N5">
-        <v>0.220869978492051</v>
+        <v>0.644598</v>
       </c>
       <c r="O5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q5">
-        <v>12.27133606687083</v>
+        <v>13.288312638522</v>
       </c>
       <c r="R5">
-        <v>12.27133606687083</v>
+        <v>119.594813746698</v>
       </c>
       <c r="S5">
-        <v>0.0008111764580535421</v>
+        <v>0.0006725143773461573</v>
       </c>
       <c r="T5">
-        <v>0.0008111764580535421</v>
+        <v>0.0006725143773461572</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1361.3754564882</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H6">
-        <v>1361.3754564882</v>
+        <v>185.533951</v>
       </c>
       <c r="I6">
-        <v>0.7494812551902312</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J6">
-        <v>0.7494812551902312</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.13036839234934</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N6">
-        <v>5.13036839234934</v>
+        <v>0.797045</v>
       </c>
       <c r="O6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q6">
-        <v>6984.357612087216</v>
+        <v>16.43098977497722</v>
       </c>
       <c r="R6">
-        <v>6984.357612087216</v>
+        <v>147.878907974795</v>
       </c>
       <c r="S6">
-        <v>0.4616894557103356</v>
+        <v>0.0008315635820959231</v>
       </c>
       <c r="T6">
-        <v>0.4616894557103356</v>
+        <v>0.0008315635820959231</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H7">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.75397691008961</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N7">
-        <v>2.75397691008961</v>
+        <v>19.830535</v>
       </c>
       <c r="O7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q7">
-        <v>3749.196573131205</v>
+        <v>8998.958425357305</v>
       </c>
       <c r="R7">
-        <v>3749.196573131205</v>
+        <v>80990.62582821575</v>
       </c>
       <c r="S7">
-        <v>0.2478344640034429</v>
+        <v>0.455432460600675</v>
       </c>
       <c r="T7">
-        <v>0.2478344640034429</v>
+        <v>0.4554324606006751</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H8">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.22314243815605</v>
+        <v>2.754304</v>
       </c>
       <c r="N8">
-        <v>0.22314243815605</v>
+        <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q8">
-        <v>303.7806386065825</v>
+        <v>3749.651815262976</v>
       </c>
       <c r="R8">
-        <v>303.7806386065825</v>
+        <v>33746.86633736678</v>
       </c>
       <c r="S8">
-        <v>0.02008091874489485</v>
+        <v>0.1897678677800091</v>
       </c>
       <c r="T8">
-        <v>0.02008091874489485</v>
+        <v>0.1897678677800093</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H9">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.220869978492051</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N9">
-        <v>0.220869978492051</v>
+        <v>0.687851</v>
       </c>
       <c r="O9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q9">
-        <v>300.6869677941548</v>
+        <v>312.1419846635729</v>
       </c>
       <c r="R9">
-        <v>300.6869677941548</v>
+        <v>2809.277861972157</v>
       </c>
       <c r="S9">
-        <v>0.01987641673155796</v>
+        <v>0.01579733847103141</v>
       </c>
       <c r="T9">
-        <v>0.01987641673155796</v>
+        <v>0.01579733847103142</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>241.126779126896</v>
+        <v>1361.379069</v>
       </c>
       <c r="H10">
-        <v>241.126779126896</v>
+        <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J10">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>5.13036839234934</v>
+        <v>0.214866</v>
       </c>
       <c r="N10">
-        <v>5.13036839234934</v>
+        <v>0.644598</v>
       </c>
       <c r="O10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q10">
-        <v>1237.069206181628</v>
+        <v>292.5140750397539</v>
       </c>
       <c r="R10">
-        <v>1237.069206181628</v>
+        <v>2632.626675357786</v>
       </c>
       <c r="S10">
-        <v>0.08177442224458661</v>
+        <v>0.01480398048959717</v>
       </c>
       <c r="T10">
-        <v>0.08177442224458661</v>
+        <v>0.01480398048959718</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>241.126779126896</v>
+        <v>1361.379069</v>
       </c>
       <c r="H11">
-        <v>241.126779126896</v>
+        <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J11">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.75397691008961</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N11">
-        <v>2.75397691008961</v>
+        <v>0.797045</v>
       </c>
       <c r="O11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q11">
-        <v>664.057582119749</v>
+        <v>361.6934600170349</v>
       </c>
       <c r="R11">
-        <v>664.057582119749</v>
+        <v>3255.241140153315</v>
       </c>
       <c r="S11">
-        <v>0.04389643266813868</v>
+        <v>0.01830511206881029</v>
       </c>
       <c r="T11">
-        <v>0.04389643266813868</v>
+        <v>0.0183051120688103</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H12">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I12">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J12">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.22314243815605</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N12">
-        <v>0.22314243815605</v>
+        <v>19.830535</v>
       </c>
       <c r="O12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q12">
-        <v>53.80561739909092</v>
+        <v>1659.201125457497</v>
       </c>
       <c r="R12">
-        <v>53.80561739909092</v>
+        <v>14932.81012911747</v>
       </c>
       <c r="S12">
-        <v>0.003556731712613607</v>
+        <v>0.08397127928374819</v>
       </c>
       <c r="T12">
-        <v>0.003556731712613607</v>
+        <v>0.08397127928374819</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H13">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I13">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J13">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.220869978492051</v>
+        <v>2.754304</v>
       </c>
       <c r="N13">
-        <v>0.220869978492051</v>
+        <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.02652023195231612</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P13">
-        <v>0.02652023195231612</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q13">
-        <v>53.25766651961505</v>
+        <v>691.349622688256</v>
       </c>
       <c r="R13">
-        <v>53.25766651961505</v>
+        <v>6222.146604194304</v>
       </c>
       <c r="S13">
-        <v>0.003520510322279385</v>
+        <v>0.03498883369757973</v>
       </c>
       <c r="T13">
-        <v>0.003520510322279385</v>
+        <v>0.03498883369757973</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>133.49876153682</v>
+        <v>251.007014</v>
       </c>
       <c r="H14">
-        <v>133.49876153682</v>
+        <v>753.021042</v>
       </c>
       <c r="I14">
-        <v>0.07349538945050349</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J14">
-        <v>0.07349538945050349</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.13036839234934</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N14">
-        <v>5.13036839234934</v>
+        <v>0.687851</v>
       </c>
       <c r="O14">
-        <v>0.6160120116588518</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P14">
-        <v>0.6160120116588518</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q14">
-        <v>684.8978266062833</v>
+        <v>57.55180852897134</v>
       </c>
       <c r="R14">
-        <v>684.8978266062833</v>
+        <v>517.9662767607419</v>
       </c>
       <c r="S14">
-        <v>0.04527404270305541</v>
+        <v>0.002912666169954844</v>
       </c>
       <c r="T14">
-        <v>0.04527404270305541</v>
+        <v>0.002912666169954844</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>133.49876153682</v>
+        <v>251.007014</v>
       </c>
       <c r="H15">
-        <v>133.49876153682</v>
+        <v>753.021042</v>
       </c>
       <c r="I15">
-        <v>0.07349538945050349</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J15">
-        <v>0.07349538945050349</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>2.75397691008961</v>
+        <v>0.214866</v>
       </c>
       <c r="N15">
-        <v>2.75397691008961</v>
+        <v>0.644598</v>
       </c>
       <c r="O15">
-        <v>0.3306746663604526</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P15">
-        <v>0.3306746663604526</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q15">
-        <v>367.6525067979613</v>
+        <v>53.932873070124</v>
       </c>
       <c r="R15">
-        <v>367.6525067979613</v>
+        <v>485.395857631116</v>
       </c>
       <c r="S15">
-        <v>0.02430306338557677</v>
+        <v>0.002729513786881973</v>
       </c>
       <c r="T15">
-        <v>0.02430306338557677</v>
+        <v>0.002729513786881973</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>133.49876153682</v>
+        <v>251.007014</v>
       </c>
       <c r="H16">
-        <v>133.49876153682</v>
+        <v>753.021042</v>
       </c>
       <c r="I16">
-        <v>0.07349538945050349</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J16">
-        <v>0.07349538945050349</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.22314243815605</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N16">
-        <v>0.22314243815605</v>
+        <v>0.797045</v>
       </c>
       <c r="O16">
-        <v>0.02679309002837966</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P16">
-        <v>0.02679309002837966</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q16">
-        <v>29.78923914013913</v>
+        <v>66.68796182454332</v>
       </c>
       <c r="R16">
-        <v>29.78923914013913</v>
+        <v>600.19165642089</v>
       </c>
       <c r="S16">
-        <v>0.001969168586218165</v>
+        <v>0.003375041989372201</v>
       </c>
       <c r="T16">
-        <v>0.001969168586218165</v>
+        <v>0.003375041989372202</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H17">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.220869978492051</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N17">
-        <v>0.220869978492051</v>
+        <v>19.830535</v>
       </c>
       <c r="O17">
-        <v>0.02652023195231612</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P17">
-        <v>0.02652023195231612</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q17">
-        <v>29.48586858935288</v>
+        <v>1718.85478779291</v>
       </c>
       <c r="R17">
-        <v>29.48586858935288</v>
+        <v>15469.69309013619</v>
       </c>
       <c r="S17">
-        <v>0.00194911477565316</v>
+        <v>0.08699031914781781</v>
       </c>
       <c r="T17">
-        <v>0.00194911477565316</v>
+        <v>0.08699031914781782</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>24.8635304977225</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H18">
-        <v>24.8635304977225</v>
+        <v>780.094591</v>
       </c>
       <c r="I18">
-        <v>0.01368817834718704</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J18">
-        <v>0.01368817834718704</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.13036839234934</v>
+        <v>2.754304</v>
       </c>
       <c r="N18">
-        <v>5.13036839234934</v>
+        <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.6160120116588518</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P18">
-        <v>0.6160120116588518</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q18">
-        <v>127.5590709877294</v>
+        <v>716.2058841232214</v>
       </c>
       <c r="R18">
-        <v>127.5590709877294</v>
+        <v>6445.852957108992</v>
       </c>
       <c r="S18">
-        <v>0.008432082279595826</v>
+        <v>0.03624679576069599</v>
       </c>
       <c r="T18">
-        <v>0.008432082279595826</v>
+        <v>0.036246795760696</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>24.8635304977225</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H19">
-        <v>24.8635304977225</v>
+        <v>780.094591</v>
       </c>
       <c r="I19">
-        <v>0.01368817834718704</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J19">
-        <v>0.01368817834718704</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.75397691008961</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N19">
-        <v>2.75397691008961</v>
+        <v>0.687851</v>
       </c>
       <c r="O19">
-        <v>0.3306746663604526</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P19">
-        <v>0.3306746663604526</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q19">
-        <v>68.4735888940366</v>
+        <v>59.62098272377123</v>
       </c>
       <c r="R19">
-        <v>68.4735888940366</v>
+        <v>536.588844513941</v>
       </c>
       <c r="S19">
-        <v>0.004526333808038446</v>
+        <v>0.003017385966447482</v>
       </c>
       <c r="T19">
-        <v>0.004526333808038446</v>
+        <v>0.003017385966447483</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.8635304977225</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H20">
-        <v>24.8635304977225</v>
+        <v>780.094591</v>
       </c>
       <c r="I20">
-        <v>0.01368817834718704</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J20">
-        <v>0.01368817834718704</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.22314243815605</v>
+        <v>0.214866</v>
       </c>
       <c r="N20">
-        <v>0.22314243815605</v>
+        <v>0.644598</v>
       </c>
       <c r="O20">
-        <v>0.02679309002837966</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P20">
-        <v>0.02679309002837966</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q20">
-        <v>5.548108816429107</v>
+        <v>55.87193479660201</v>
       </c>
       <c r="R20">
-        <v>5.548108816429107</v>
+        <v>502.847413169418</v>
       </c>
       <c r="S20">
-        <v>0.0003667485947806995</v>
+        <v>0.002827648661120089</v>
       </c>
       <c r="T20">
-        <v>0.0003667485947806995</v>
+        <v>0.00282764866112009</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.8635304977225</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H21">
-        <v>24.8635304977225</v>
+        <v>780.094591</v>
       </c>
       <c r="I21">
-        <v>0.01368817834718704</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J21">
-        <v>0.01368817834718704</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.220869978492051</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N21">
-        <v>0.220869978492051</v>
+        <v>0.797045</v>
       </c>
       <c r="O21">
-        <v>0.02652023195231612</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P21">
-        <v>0.02652023195231612</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q21">
-        <v>5.491607446268423</v>
+        <v>69.08561036484389</v>
       </c>
       <c r="R21">
-        <v>5.491607446268423</v>
+        <v>621.770493283595</v>
       </c>
       <c r="S21">
-        <v>0.0003630136647720715</v>
+        <v>0.003496385696360307</v>
       </c>
       <c r="T21">
-        <v>0.0003630136647720715</v>
+        <v>0.003496385696360308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H22">
+        <v>81.231988</v>
+      </c>
+      <c r="I22">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J22">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.610178333333334</v>
+      </c>
+      <c r="N22">
+        <v>19.830535</v>
+      </c>
+      <c r="O22">
+        <v>0.6561418030098394</v>
+      </c>
+      <c r="P22">
+        <v>0.6561418030098395</v>
+      </c>
+      <c r="Q22">
+        <v>178.9859756837311</v>
+      </c>
+      <c r="R22">
+        <v>1610.87378115358</v>
+      </c>
+      <c r="S22">
+        <v>0.009058384255777652</v>
+      </c>
+      <c r="T22">
+        <v>0.009058384255777653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H23">
+        <v>81.231988</v>
+      </c>
+      <c r="I23">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J23">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.754304</v>
+      </c>
+      <c r="N23">
+        <v>8.262912</v>
+      </c>
+      <c r="O23">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P23">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q23">
+        <v>74.57919649211733</v>
+      </c>
+      <c r="R23">
+        <v>671.212768429056</v>
+      </c>
+      <c r="S23">
+        <v>0.003774413144560962</v>
+      </c>
+      <c r="T23">
+        <v>0.003774413144560963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H24">
+        <v>81.231988</v>
+      </c>
+      <c r="I24">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J24">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.687851</v>
+      </c>
+      <c r="O24">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P24">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q24">
+        <v>6.208389353087556</v>
+      </c>
+      <c r="R24">
+        <v>55.875504177788</v>
+      </c>
+      <c r="S24">
+        <v>0.0003142032561764427</v>
+      </c>
+      <c r="T24">
+        <v>0.0003142032561764427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H25">
+        <v>81.231988</v>
+      </c>
+      <c r="I25">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J25">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.214866</v>
+      </c>
+      <c r="N25">
+        <v>0.644598</v>
+      </c>
+      <c r="O25">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P25">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q25">
+        <v>5.817997444536</v>
+      </c>
+      <c r="R25">
+        <v>52.361977000824</v>
+      </c>
+      <c r="S25">
+        <v>0.0002944457310156162</v>
+      </c>
+      <c r="T25">
+        <v>0.0002944457310156162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H26">
+        <v>81.231988</v>
+      </c>
+      <c r="I26">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J26">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.797045</v>
+      </c>
+      <c r="O26">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P26">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q26">
+        <v>7.193949986162222</v>
+      </c>
+      <c r="R26">
+        <v>64.74554987546</v>
+      </c>
+      <c r="S26">
+        <v>0.0003640819513516048</v>
+      </c>
+      <c r="T26">
+        <v>0.000364081951351605</v>
       </c>
     </row>
   </sheetData>
